--- a/Procesflow/Procesflow bankzaken.xlsx
+++ b/Procesflow/Procesflow bankzaken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariska Lokhorst\webProject\team-3\Procesflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C530C0F-352F-4B00-8516-FA7BC50A6ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A350B-E5E1-4BF6-9794-62BDE96F44CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{756094F8-9BC3-463D-8EF9-3B55D5B43748}"/>
   </bookViews>
@@ -115,8 +115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="520700" y="254577"/>
-          <a:ext cx="919018" cy="1197264"/>
+          <a:off x="520700" y="256615"/>
+          <a:ext cx="920376" cy="1209488"/>
           <a:chOff x="520700" y="254000"/>
           <a:chExt cx="914400" cy="1193800"/>
         </a:xfrm>
@@ -363,6 +363,13 @@
             <a:rPr lang="nl-NL" sz="1100" baseline="0"/>
             <a:t> gegevens</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" baseline="0"/>
+            <a:t>(+ automatisch krijgen van rekeningnummer)</a:t>
+          </a:r>
           <a:endParaRPr lang="nl-NL" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1029,8 +1036,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="5573568"/>
-          <a:ext cx="916709" cy="1197264"/>
+          <a:off x="228600" y="5634691"/>
+          <a:ext cx="917388" cy="1209488"/>
           <a:chOff x="520700" y="254000"/>
           <a:chExt cx="914400" cy="1193800"/>
         </a:xfrm>
@@ -1334,6 +1341,9 @@
             <a:rPr lang="nl-NL" sz="1100" baseline="0"/>
             <a:t> login gegevens</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="nl-NL" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1469,15 +1479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>134844</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>287244</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1492,8 +1502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4349750" y="1612900"/>
-          <a:ext cx="1371600" cy="692150"/>
+          <a:off x="4422962" y="2291230"/>
+          <a:ext cx="1377576" cy="702608"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -3942,6 +3952,546 @@
             <a:t> terug </a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechthoek: afgeronde hoeken 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0582A20-19AC-4364-8268-5B0AF06EF022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6237941" y="11250706"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>AccountOverview</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159871</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rechthoek: afgeronde hoeken 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24C89D7-2ACF-4A68-8ADD-0ADDFC6415DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3222812" y="10215282"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530412</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rechthoek: afgeronde hoeken 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7332E3D6-778F-46E2-ACA3-9F4C0C70CE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3511177" y="7209118"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436283</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518459</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rechthoek: afgeronde hoeken 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE514B4-9F80-4AC4-9131-240664C6561D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3499224" y="5583518"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321235</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rechthoek: afgeronde hoeken 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F205880-5B1D-4681-ACA9-6FA5E196B1F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3384176" y="82176"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218515</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300691</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>182282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rechthoek: afgeronde hoeken 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C230AF20-29CE-479E-A8FE-5C1F9AC02CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3281456" y="12501282"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Transfer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478117</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rechthoek: afgeronde hoeken 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5844AD68-F0C1-4458-8103-DDBCE7220644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3541058" y="15546294"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rechthoek: afgeronde hoeken 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B91E1F-F128-4CEB-9716-6A653DA0CD58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6282765" y="13902764"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261470</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>343646</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rechthoek: afgeronde hoeken 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D5D5E4-D62C-4B0D-B09E-3C0DCAFD799A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324411" y="1890058"/>
+          <a:ext cx="1307353" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Register</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4249,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77628A9-8BFD-49FE-9150-0DF4141E1CF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
